--- a/SkynetLearn/ExcelToLua/Index/INDEX.xlsx
+++ b/SkynetLearn/ExcelToLua/Index/INDEX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0314FEF0-48A3-4397-A27E-4473326D5199}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975EFB4-D27A-44B6-A5D2-0CC973307A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,23 +54,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D.道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#note</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyeqpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.兵种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵装建造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:X6"/>
+      <selection activeCell="D3" sqref="D3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,7 +429,7 @@
     <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,29 +455,55 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="Q6" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="R6" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" t="s">
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="X6" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
